--- a/dados_graduacao/Tabela2.09.xlsx
+++ b/dados_graduacao/Tabela2.09.xlsx
@@ -38,61 +38,61 @@
     <t xml:space="preserve">Até 18 anos</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3%</t>
+    <t xml:space="preserve">55,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,3%</t>
   </si>
   <si>
     <t xml:space="preserve">De 19 a 24 anos</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.9%</t>
+    <t xml:space="preserve">52,4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47,6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68,9%</t>
   </si>
   <si>
     <t xml:space="preserve">De 25 a 29 anos</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3%</t>
+    <t xml:space="preserve">45,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54,2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,3%</t>
   </si>
   <si>
     <t xml:space="preserve">De 30 a 34 anos</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9%</t>
+    <t xml:space="preserve">41,3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58,7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,9%</t>
   </si>
   <si>
     <t xml:space="preserve">De 35 a 39 anos</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3%</t>
+    <t xml:space="preserve">38,1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61,9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3%</t>
   </si>
   <si>
     <t xml:space="preserve">De 40 a 44 anos</t>
@@ -104,25 +104,25 @@
     <t xml:space="preserve">60%</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2%</t>
+    <t xml:space="preserve">1,2%</t>
   </si>
   <si>
     <t xml:space="preserve">De 45 anos ou mais</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3%</t>
+    <t xml:space="preserve">39,9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60,1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50,7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49,3%</t>
   </si>
   <si>
     <t xml:space="preserve">100%</t>
